--- a/get_calendar_info/testdata.xlsx
+++ b/get_calendar_info/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhaarun\Desktop\ImagineerX\get_google_calendar_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhaarun\Desktop\ImagineerX\ImagineerX\get_calendar_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC76429-3421-48E6-96EB-00C53C80FCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1CE148-7FA9-41B2-800A-4CF13D0EED48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5556" yWindow="168" windowWidth="17280" windowHeight="8880" xr2:uid="{759FBE3E-488C-4102-AFBE-1F71B4648584}"/>
+    <workbookView xWindow="5556" yWindow="168" windowWidth="17268" windowHeight="8880" xr2:uid="{759FBE3E-488C-4102-AFBE-1F71B4648584}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -97,16 +97,99 @@
   </si>
   <si>
     <t>User 10</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>1@gmail.com</t>
+  </si>
+  <si>
+    <t>2@gmail.com</t>
+  </si>
+  <si>
+    <t>3@gmail.com</t>
+  </si>
+  <si>
+    <t>4@gmail.com</t>
+  </si>
+  <si>
+    <t>5@gmail.com</t>
+  </si>
+  <si>
+    <t>6@gmail.com</t>
+  </si>
+  <si>
+    <t>7@gmail.com</t>
+  </si>
+  <si>
+    <t>8@gmail.com</t>
+  </si>
+  <si>
+    <t>9@gmail.com</t>
+  </si>
+  <si>
+    <t>10@gmail.com</t>
+  </si>
+  <si>
+    <t>user 1</t>
+  </si>
+  <si>
+    <t>user 2</t>
+  </si>
+  <si>
+    <t>user 3</t>
+  </si>
+  <si>
+    <t>user 4</t>
+  </si>
+  <si>
+    <t>user 5</t>
+  </si>
+  <si>
+    <t>user 6</t>
+  </si>
+  <si>
+    <t>user 7</t>
+  </si>
+  <si>
+    <t>user 8</t>
+  </si>
+  <si>
+    <t>user 9</t>
+  </si>
+  <si>
+    <t>user 10</t>
+  </si>
+  <si>
+    <t>user 11</t>
+  </si>
+  <si>
+    <t>User 11</t>
+  </si>
+  <si>
+    <t>11@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,14 +212,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,274 +535,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B39BCA-9AD1-447D-9C1F-91C4FFF7A2DE}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E2" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.625</v>
-      </c>
       <c r="G2" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="I2" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="1">
         <v>0.375</v>
       </c>
-      <c r="K2" s="1">
+      <c r="M2" s="1">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.375</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G3" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.5</v>
-      </c>
       <c r="I3" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="J3" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.625</v>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="G4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I4" s="1">
         <v>0.75</v>
       </c>
-      <c r="H4" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="K4" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K4" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.75</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.625</v>
-      </c>
       <c r="F5" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K5" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M5" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.75</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J6" s="1">
         <v>0.375</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J6" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.375</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E7" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.5</v>
-      </c>
       <c r="G7" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="K7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.54166666666666663</v>
-      </c>
       <c r="E8" s="1">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="1">
         <v>0.54166666666666663</v>
@@ -725,124 +853,202 @@
         <v>0.625</v>
       </c>
       <c r="H8" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="J8" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I8" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L8" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D9" s="1">
+      <c r="F9" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G9" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.5</v>
-      </c>
       <c r="I9" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <v>0.75</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.375</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F10" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="I10" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H10" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.625</v>
-      </c>
       <c r="J10" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="L10" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
         <v>0.875</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E11" s="1">
         <v>0.75</v>
       </c>
-      <c r="D11" s="1">
+      <c r="F11" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="G11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I11" s="1">
         <v>0.75</v>
       </c>
-      <c r="H11" s="1">
+      <c r="J11" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I11" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L11" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="1">
         <v>0.91666666666666663</v>
       </c>
     </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8BEB2B8C-DCBD-4A53-8C16-EEBFB5EE79FF}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{104D014D-DA7F-4F65-842A-D7649B15D6E1}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{8A062E00-9671-4C0A-819E-6DD5860D8038}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{6DB3FE4A-A739-4199-AB9A-B61F15D7483C}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{89F0B2E9-7029-438F-8342-D1C2066FB6B5}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{A70AC36A-6B0D-41B9-A707-F0A72F9AD452}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{125285C5-16E2-4B2C-B262-94ABA64BF2CB}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{E3B54ED9-FB61-499D-A773-C629CB75191F}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{F9C0A536-FBF7-4277-9839-2ACE17134982}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{7CD0562B-AE21-4D78-9388-404BF416A9F1}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{7A77707F-93A0-4E41-8E22-D0D841803BB0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>